--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -66269,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -66549,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66603,7 +66605,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66657,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66711,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66765,7 +66773,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66777,6 +66777,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>6212</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1185"/>
+  <dimension ref="A1:R1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66829,7 +66829,63 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>26649</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1186"/>
+  <dimension ref="A1:R1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66885,7 +66885,387 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>10785</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>581</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>581</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>13484</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>22560</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>7629</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>8667</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>686.0499877929688</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>81780</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>721</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>40728</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -66941,7 +66941,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66995,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67049,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67103,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67157,7 +67165,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67211,7 +67221,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67265,7 +67277,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1193"/>
+  <dimension ref="A1:R1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66989,7 +66989,7 @@
         <v>25</v>
       </c>
       <c r="O1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1188" t="n">
         <v>0</v>
@@ -67280,6 +67280,276 @@
       <c r="R1193" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>704.4000244140625</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>777.6500244140625</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>777.6500244140625</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>111306</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>810</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>769</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>74413</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>12403</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>5345</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>5997</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1198"/>
+  <dimension ref="A1:R1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67333,7 +67333,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67379,7 +67381,7 @@
         <v>27</v>
       </c>
       <c r="O1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1195" t="n">
         <v>0</v>
@@ -67387,7 +67389,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67441,7 +67445,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67495,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67549,7 +67557,495 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>5460</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>3754</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>3528</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>27815</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>20341</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>8614</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>694.5</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>694.5</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>13530</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>714</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>714</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>691.2000122070312</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>694</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>694</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>9342</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>6056</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1207"/>
+  <dimension ref="A1:R1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67613,7 +67613,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67667,7 +67669,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67721,7 +67725,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67775,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67829,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67883,7 +67893,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67937,7 +67949,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67991,7 +68005,9 @@
       <c r="Q1206" t="n">
         <v>2</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68045,7 +68061,549 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>675</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>3732</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>686</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>8144</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>699</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>6790</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>703</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>703</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>703</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>5936</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>702</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>693</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>693</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>693</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2908</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>691</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>15123</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>5387</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>4963</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>8768</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>11095</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1217"/>
+  <dimension ref="A1:R1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68109,7 +68109,7 @@
         <v>30</v>
       </c>
       <c r="O1208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1208" t="n">
         <v>0</v>
@@ -68117,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68171,7 +68173,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68225,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68279,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68333,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68387,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68441,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68495,7 +68509,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68549,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68603,7 +68621,279 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2619</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>7575</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2059</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>702</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>11819</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>734.2000122070312</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>734.2000122070312</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>734.2000122070312</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>734.2000122070312</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>734.2000122070312</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3906</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1222"/>
+  <dimension ref="A1:R1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68677,7 +68677,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68731,7 +68733,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68785,7 +68789,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68839,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68893,7 +68901,225 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>770.9000244140625</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>770.9000244140625</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>770.9000244140625</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>770.9000244140625</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>770.9000244140625</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>11123</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>809.4000244140625</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>13392</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>808</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>808</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>768.9500122070312</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>768.9500122070312</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>768.9500122070312</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>18102</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>7441</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1226"/>
+  <dimension ref="A1:R1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68957,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69011,7 +69013,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -69065,7 +69069,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -69119,7 +69125,279 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>705.9500122070312</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>767</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>705.9500122070312</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>747.4000244140625</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>747.4000244140625</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>110611</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>745</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>770</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>715</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>736.5999755859375</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>736.5999755859375</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>34324</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>738</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>701</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>724.6500244140625</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>724.6500244140625</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>33367</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>723.3499755859375</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>729</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>712</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>720.5499877929688</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>720.5499877929688</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>21369</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>739</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>707.7000122070312</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>707.7000122070312</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>21199</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1231"/>
+  <dimension ref="A1:R1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69005,7 +69005,7 @@
         <v>33</v>
       </c>
       <c r="O1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1224" t="n">
         <v>0</v>
@@ -69181,7 +69181,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69235,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69289,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69343,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69397,7 +69405,225 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>724.9500122070312</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>724.9500122070312</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>672.3499755859375</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>672.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>672.5</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>99835</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>657</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>659</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>615.9500122070312</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>615.9500122070312</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>104281</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>625.5999755859375</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>625.5999755859375</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>23201</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>625.5999755859375</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>656.8499755859375</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>619</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>656.8499755859375</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>656.8499755859375</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>25972</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1235"/>
+  <dimension ref="A1:R1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69461,7 +69461,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69515,7 +69517,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69569,7 +69573,9 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69623,7 +69629,279 @@
       <c r="Q1235" t="n">
         <v>2</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>679.8499755859375</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>689.6500244140625</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>677</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>689.6500244140625</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>689.6500244140625</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>36922</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>702.8499755859375</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>655.2000122070312</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>663.9500122070312</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>663.9500122070312</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>40092</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>650</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>696.7000122070312</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>630.75</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>677.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>677.25</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>17672</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>660.5999755859375</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>660.5999755859375</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>15134</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>660.5999755859375</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>645.5</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>645.5</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>15398</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1240"/>
+  <dimension ref="A1:R1245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69685,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69739,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69793,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69847,7 +69853,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69901,7 +69909,279 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>646</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>656</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>616</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>622.7000122070312</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>622.7000122070312</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>20305</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>626.4000244140625</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>644</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>592.0999755859375</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>11211</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>629</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>619</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>625.0999755859375</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>13201</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>645</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>645</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>624</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>8641</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>639</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>639</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>618</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>628.9000244140625</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>628.9000244140625</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>12661</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1245"/>
+  <dimension ref="A1:R1250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69965,7 +69965,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -70019,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70073,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70127,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70181,7 +70189,279 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>628.9000244140625</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>628.9000244140625</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>615.2000122070312</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>615.2000122070312</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>21024</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>616</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>624</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>616.8499755859375</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>616.8499755859375</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>11609</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>616.7999877929688</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>618.2999877929688</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>618.2999877929688</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>15313</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>627</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>627</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>599.75</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>63158</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>618.0999755859375</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>596</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>65059</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1250"/>
+  <dimension ref="A1:R1255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70245,7 +70245,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70299,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70353,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70407,7 +70413,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70461,7 +70469,279 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>629</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>578.5999755859375</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>26941</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>622.7000122070312</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>26276</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>658.9500122070312</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>642.6500244140625</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>22471</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>668.7999877929688</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>628.5</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>19205</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>650</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>611</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>13011</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1255"/>
+  <dimension ref="A1:R1259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70525,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70579,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70633,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70687,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70741,7 +70749,225 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>633.9500122070312</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>633.9500122070312</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>612.7999877929688</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>612.7999877929688</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>15125</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>624</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>596</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>611.5499877929688</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>611.5499877929688</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>10478</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>585</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>592.25</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>592.25</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>25038</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>592.25</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>565</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>572.2000122070312</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>572.2000122070312</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>19423</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1259"/>
+  <dimension ref="A1:R1264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70685,7 +70685,7 @@
         <v>39</v>
       </c>
       <c r="O1254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1254" t="n">
         <v>0</v>
@@ -70805,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70859,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70913,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70967,7 +70973,279 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>573.0999755859375</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>543.5999755859375</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>21065</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>548</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>6483</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>3887</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>634.75</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>634.75</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>38841</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>611</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>616.7000122070312</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>616.7000122070312</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>12479</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1264"/>
+  <dimension ref="A1:R1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71029,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71083,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71137,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71191,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71245,7 +71253,279 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>587.5999755859375</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>14583</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>575.5999755859375</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>12986</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>599.9500122070312</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>591</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>10916</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>598.1500244140625</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>598.1500244140625</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>5736</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>607</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>585</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>597.9000244140625</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>597.9000244140625</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>6290</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1269"/>
+  <dimension ref="A1:R1274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71021,7 +71021,7 @@
         <v>41</v>
       </c>
       <c r="O1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1260" t="n">
         <v>0</v>
@@ -71309,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>2</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71363,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71417,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71471,7 +71477,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71525,7 +71533,279 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>597.9000244140625</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>568</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>572.25</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>572.25</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>17195</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>572</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>543.6500244140625</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>14608</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>546.5</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>563.75</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>563.75</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>6587</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>564.5</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>542</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>9200</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>535.5999755859375</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>558.8499755859375</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>520.1500244140625</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>18672</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1274"/>
+  <dimension ref="A1:R1278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71589,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71643,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71697,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71751,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71805,7 +71813,225 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>525.9000244140625</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>534.3499755859375</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>534.3499755859375</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>9233</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>533.9500122070312</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>539.9000244140625</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>520</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>6715</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>586</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>544</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>11748</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>594</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>594</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>571.0999755859375</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>7003</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1278"/>
+  <dimension ref="A1:R1282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71869,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71923,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71977,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72031,7 +72037,225 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>557.0999755859375</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>576.2999877929688</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>576.2999877929688</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>14146</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>586.9500122070312</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>561.0499877929688</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>16172</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>611</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>585</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>11353</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>604.7999877929688</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>562.5499877929688</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>573.7000122070312</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>573.7000122070312</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>12505</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1282"/>
+  <dimension ref="A1:R1286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71861,7 +71861,7 @@
         <v>44</v>
       </c>
       <c r="O1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1275" t="n">
         <v>0</v>
@@ -72093,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72147,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72201,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72255,7 +72261,225 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>8904</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>579</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>12424</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>548</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>552</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>536.5999755859375</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>536.5999755859375</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>536.5999755859375</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>10559</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>509.7999877929688</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>509.7999877929688</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>511.7000122070312</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>511.7000122070312</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>19318</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1286"/>
+  <dimension ref="A1:R1290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72317,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72371,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72425,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72479,7 +72485,225 @@
       <c r="Q1286" t="n">
         <v>1</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>502.1499938964844</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>507.6000061035156</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>486.1499938964844</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>493.1499938964844</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>493.1499938964844</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>17780</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>507.75</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>496.3999938964844</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>496.3999938964844</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>10279</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>518.9000244140625</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>518.9000244140625</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>10003</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>508</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>467</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>497.8500061035156</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>497.8500061035156</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>13662</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1290"/>
+  <dimension ref="A1:R1295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72197,7 +72197,7 @@
         <v>45</v>
       </c>
       <c r="O1281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1281" t="n">
         <v>0</v>
@@ -72541,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72595,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72649,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72703,7 +72709,279 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>494.6000061035156</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>494.6000061035156</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>9368</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>490.1000061035156</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>501.8999938964844</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>481</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>487.3999938964844</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>487.3999938964844</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>8215</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>499</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>491.4500122070312</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>491.4500122070312</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>6299</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>497.75</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>503</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>482.0499877929688</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>7154</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>5200</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1295"/>
+  <dimension ref="A1:R1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72701,7 +72701,7 @@
         <v>47</v>
       </c>
       <c r="O1290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1290" t="n">
         <v>0</v>
@@ -72765,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72819,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72873,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72927,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72981,7 +72989,279 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>500</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>475.9500122070312</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>490.2000122070312</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>490.2000122070312</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>17955</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>476</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>495.8999938964844</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>495.8999938964844</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>19091</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>498.7999877929688</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>498</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>9183</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>535</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>535</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>11662</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>567</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>541.4000244140625</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>541.4000244140625</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>29523</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1300"/>
+  <dimension ref="A1:R1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73045,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73099,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73153,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73207,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73261,7 +73269,529 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>531</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>542.7000122070312</v>
+      </c>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="n">
+        <v>21777</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>553.7000122070312</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>561.25</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>548.4500122070312</v>
+      </c>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="n">
+        <v>14182</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>559</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>559</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>541.0499877929688</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>544.7000122070312</v>
+      </c>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="n">
+        <v>16307</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>560.7000122070312</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>571.9000244140625</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>544.7000122070312</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>571.9000244140625</v>
+      </c>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="n">
+        <v>36476</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>570.9000244140625</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>569.9500122070312</v>
+      </c>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="n">
+        <v>32451</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>591</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>563.0499877929688</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>571</v>
+      </c>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="n">
+        <v>24976</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>587</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>560.0499877929688</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>566.5999755859375</v>
+      </c>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="n">
+        <v>19257</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>538.2999877929688</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="n">
+        <v>17265</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>538.2999877929688</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>546.9500122070312</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>529</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>536.0499877929688</v>
+      </c>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="n">
+        <v>11901</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>559.9500122070312</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>562.8499755859375</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>554.6500244140625</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>562.8499755859375</v>
+      </c>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="n">
+        <v>14492</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1310"/>
+  <dimension ref="A1:R1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7526,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8646,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -9654,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="R191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
       <c r="R264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="R267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -26958,7 +26958,7 @@
         <v>1</v>
       </c>
       <c r="R473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="R586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -35806,7 +35806,7 @@
         <v>2</v>
       </c>
       <c r="R631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -37542,7 +37542,7 @@
         <v>2</v>
       </c>
       <c r="R662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663">
@@ -40958,7 +40958,7 @@
         <v>1</v>
       </c>
       <c r="R723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -52158,7 +52158,7 @@
         <v>0</v>
       </c>
       <c r="R923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="R942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -58150,7 +58150,7 @@
         <v>1</v>
       </c>
       <c r="R1030" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -60222,7 +60222,7 @@
         <v>1</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207">
@@ -72486,7 +72486,7 @@
         <v>1</v>
       </c>
       <c r="R1286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287">
@@ -73323,7 +73323,9 @@
       <c r="Q1301" t="n">
         <v>1</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73375,7 +73377,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73427,7 +73431,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73479,7 +73485,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73531,7 +73539,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73583,7 +73593,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73635,7 +73647,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73687,7 +73701,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73739,7 +73755,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73791,7 +73809,217 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>583</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>534.7000122070312</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>537.9000244140625</v>
+      </c>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="n">
+        <v>35230</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>530.5999755859375</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>544.2000122070312</v>
+      </c>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="n">
+        <v>9624</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>544.0499877929688</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>521.25</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>523.9000244140625</v>
+      </c>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="n">
+        <v>11517</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>524.0999755859375</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>533.7000122070312</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>516.9000244140625</v>
+      </c>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="n">
+        <v>8658</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1314"/>
+  <dimension ref="A1:R1319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7526,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8646,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -9654,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="R191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="R267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -26958,7 +26958,7 @@
         <v>1</v>
       </c>
       <c r="R473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="R586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -35806,7 +35806,7 @@
         <v>2</v>
       </c>
       <c r="R631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -37542,7 +37542,7 @@
         <v>2</v>
       </c>
       <c r="R662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -40958,7 +40958,7 @@
         <v>1</v>
       </c>
       <c r="R723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -52158,7 +52158,7 @@
         <v>0</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="R942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943">
@@ -58150,7 +58150,7 @@
         <v>1</v>
       </c>
       <c r="R1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -60222,7 +60222,7 @@
         <v>1</v>
       </c>
       <c r="R1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -72486,7 +72486,7 @@
         <v>1</v>
       </c>
       <c r="R1286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287">
@@ -73324,7 +73324,7 @@
         <v>1</v>
       </c>
       <c r="R1301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -73585,7 +73585,7 @@
         <v>51</v>
       </c>
       <c r="O1306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1306" t="n">
         <v>0</v>
@@ -73863,7 +73863,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73915,7 +73917,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73967,7 +73971,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74019,7 +74025,269 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>510</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>494.0499877929688</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>496.8999938964844</v>
+      </c>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="n">
+        <v>16666</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>519.9000244140625</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>494.0499877929688</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>504.8999938964844</v>
+      </c>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="n">
+        <v>16807</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>523.0499877929688</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>511.1000061035156</v>
+      </c>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="n">
+        <v>12152</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>518.9500122070312</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>518.9500122070312</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>495.0499877929688</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>500.0499877929688</v>
+      </c>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="n">
+        <v>16428</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>513.7000122070312</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>513.7000122070312</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>481.25</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>505.9500122070312</v>
+      </c>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="n">
+        <v>18207</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1319"/>
+  <dimension ref="A1:R1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74079,7 +74079,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74131,7 +74133,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74183,7 +74187,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74235,7 +74241,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74287,7 +74295,269 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>512</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>512</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>485</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="n">
+        <v>21661</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>487.7000122070312</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>502</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>480.7000122070312</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="n">
+        <v>14538</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>502.2999877929688</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>481.5499877929688</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>490.9500122070312</v>
+      </c>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="n">
+        <v>14119</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>497.9500122070312</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>498</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>485</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>488.8999938964844</v>
+      </c>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="n">
+        <v>6829</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>493.1499938964844</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>469</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>470.5499877929688</v>
+      </c>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="n">
+        <v>14360</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1324"/>
+  <dimension ref="A1:R1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74349,7 +74349,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74401,7 +74403,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74453,7 +74457,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74505,7 +74511,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74557,7 +74565,269 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>466.0499877929688</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="n">
+        <v>20052</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>456</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>426.25</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>451.0499877929688</v>
+      </c>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="n">
+        <v>25550</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>452</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>473.6000061035156</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>444.3999938964844</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="n">
+        <v>17222</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>453.25</v>
+      </c>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="n">
+        <v>16805</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>465</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>430.6000061035156</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>444.3500061035156</v>
+      </c>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="n">
+        <v>22124</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74619,7 +74619,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74671,7 +74673,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74723,7 +74727,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74775,7 +74781,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74827,7 +74835,269 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>464</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>458.8999938964844</v>
+      </c>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="n">
+        <v>15542</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>473</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>473</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>435.9500122070312</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>442.7999877929688</v>
+      </c>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="n">
+        <v>21548</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="n">
+        <v>19625</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>440.9500122070312</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>401.3999938964844</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="n">
+        <v>35482</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>418</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>389.2999877929688</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>390</v>
+      </c>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="n">
+        <v>33395</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1334"/>
+  <dimension ref="A1:R1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74889,7 +74889,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74941,7 +74943,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -74993,7 +74997,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75045,7 +75051,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75097,7 +75105,269 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>382</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>382</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="n">
+        <v>22344</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>356</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>352</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="n">
+        <v>42879</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>355.8999938964844</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>372.8999938964844</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>355.8999938964844</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>372.8999938964844</v>
+      </c>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="n">
+        <v>6934</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>388</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>376.6499938964844</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="n">
+        <v>13889</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>392</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="n">
+        <v>43203</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1339"/>
+  <dimension ref="A1:R1345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75159,7 +75159,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75211,7 +75213,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75263,7 +75267,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75315,7 +75321,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75367,7 +75375,321 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>431.6000061035156</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>414.0499877929688</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>431.6000061035156</v>
+      </c>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="n">
+        <v>13202</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>434.7000122070312</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>434.7000122070312</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="n">
+        <v>24275</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>407.8999938964844</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>422.9500122070312</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>399.3500061035156</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>412.3999938964844</v>
+      </c>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="n">
+        <v>23289</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>433</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>411</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>433</v>
+      </c>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="n">
+        <v>14384</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>449</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>449</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>428.8500061035156</v>
+      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="n">
+        <v>33264</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>435</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>421.2999877929688</v>
+      </c>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="n">
+        <v>20448</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1345"/>
+  <dimension ref="A1:R1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75205,7 +75205,7 @@
         <v>5</v>
       </c>
       <c r="O1336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1336" t="n">
         <v>0</v>
@@ -75429,7 +75429,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75481,7 +75483,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75533,7 +75537,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75585,7 +75591,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75637,7 +75645,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75689,7 +75699,269 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>427</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>404.0499877929688</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>411.6499938964844</v>
+      </c>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="n">
+        <v>20365</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>452.7999877929688</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>452.7999877929688</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>452.7999877929688</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>452.7999877929688</v>
+      </c>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="n">
+        <v>10931</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>469.2999877929688</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>496.6000061035156</v>
+      </c>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="n">
+        <v>221431</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>518.25</v>
+      </c>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="n">
+        <v>150915</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>530</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>466.4500122070312</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>88314</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1350"/>
+  <dimension ref="A1:R1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75753,7 +75753,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75805,7 +75807,9 @@
       <c r="Q1347" t="n">
         <v>1</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75857,7 +75861,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -75909,7 +75915,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -75961,7 +75969,269 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>485.4500122070312</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>444.3999938964844</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>78582</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>469.75</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>469.75</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>411.0499877929688</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>53969</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>454.5499877929688</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>415.6000061035156</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>454.5499877929688</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>23779</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>457.7000122070312</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>65776</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>489.3999938964844</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>449.0499877929688</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>452.6000061035156</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>54821</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1355"/>
+  <dimension ref="A1:R1364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75907,7 +75907,7 @@
         <v>7</v>
       </c>
       <c r="O1349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1349" t="n">
         <v>0</v>
@@ -76023,7 +76023,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76075,7 +76077,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76127,7 +76131,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76179,7 +76185,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76231,7 +76239,477 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>453.0499877929688</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>416.25</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>36310</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>447.9500122070312</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>447.9500122070312</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>433.1499938964844</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>25546</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>427.2999877929688</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>438.9500122070312</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>417.2000122070312</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>21754</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>392.5499877929688</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>410.75</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>28225</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>414.9500122070312</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>397.75</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>52531</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>397.9500122070312</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>385.3500061035156</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>411.7000122070312</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>30165</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>415</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>426.1499938964844</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>408.2999877929688</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>411.6000061035156</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>40618</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>426.2000122070312</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>439</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>412</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>423.3999938964844</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>50173</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>423.0499877929688</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>40172</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1364"/>
+  <dimension ref="A1:R1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76293,7 +76293,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76345,7 +76347,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76397,7 +76401,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76449,7 +76455,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76501,7 +76509,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76553,7 +76563,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76605,7 +76617,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76657,7 +76671,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76709,7 +76725,477 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>440.1499938964844</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>410</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>413.6000061035156</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>26081</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>408</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>397.7999877929688</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>23987</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>404.8500061035156</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>393.0499877929688</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>395.7000122070312</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>17455</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>398.5499877929688</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>388.7999877929688</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>390.6000061035156</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>15313</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>391.9500122070312</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>398.7999877929688</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>376</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>379.1499938964844</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>41734</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>389.7999877929688</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>399.4500122070312</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>381</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>382.9500122070312</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>46008</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>394.7999877929688</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>399</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>386</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>391.6499938964844</v>
+      </c>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="n">
+        <v>77932</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>393.8999938964844</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>393.4500122070312</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="n">
+        <v>65363</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>443.3500061035156</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>410</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>115559</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1373"/>
+  <dimension ref="A1:R1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -76779,7 +76779,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76831,7 +76833,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -76883,7 +76887,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -76935,7 +76941,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -76979,7 +76987,7 @@
         <v>12</v>
       </c>
       <c r="O1369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1369" t="n">
         <v>0</v>
@@ -76987,7 +76995,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77039,7 +77049,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77091,7 +77103,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77143,7 +77157,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77195,7 +77211,477 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>421.0499877929688</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>434.9500122070312</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>421.0499877929688</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="n">
+        <v>44475</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>432</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>440.4500122070312</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>405.2999877929688</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>413.3999938964844</v>
+      </c>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="n">
+        <v>39829</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>414.6499938964844</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>398.6000061035156</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>401.75</v>
+      </c>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="n">
+        <v>24799</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>404</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>408.8500061035156</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>391</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>392.75</v>
+      </c>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="n">
+        <v>27260</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>390</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>415.9500122070312</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>390</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>391.6499938964844</v>
+      </c>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="n">
+        <v>35788</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>390.9500122070312</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>412</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>402.7000122070312</v>
+      </c>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="n">
+        <v>27426</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>392.6499938964844</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="n">
+        <v>12736</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>396</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>396</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="n">
+        <v>22858</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>404</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>412.4500122070312</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>392.0499877929688</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>407.4500122070312</v>
+      </c>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="n">
+        <v>31352</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1382"/>
+  <dimension ref="A1:R1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77265,7 +77265,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77317,7 +77319,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77369,7 +77373,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77421,7 +77427,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77473,7 +77481,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77525,7 +77535,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77577,7 +77589,9 @@
       <c r="Q1380" t="n">
         <v>1</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77629,7 +77643,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77681,7 +77697,217 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>397.25</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>383.6000061035156</v>
+      </c>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="n">
+        <v>42936</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>389.3500061035156</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>386.6000061035156</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>391.8500061035156</v>
+      </c>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="n">
+        <v>25266</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>384.7000122070312</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>389</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>379.6499938964844</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="n">
+        <v>13866</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>400</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>411.6000061035156</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>391.7999877929688</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="n">
+        <v>24691</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1386"/>
+  <dimension ref="A1:R1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77751,7 +77751,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77803,7 +77805,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -77855,7 +77859,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -77907,7 +77913,165 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>431.7000122070312</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>406.1000061035156</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="n">
+        <v>53844</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>407.5499877929688</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>417.4500122070312</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>400.1000061035156</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>407</v>
+      </c>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="n">
+        <v>70363</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>402.4500122070312</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>418.5499877929688</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>408.3999938964844</v>
+      </c>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="n">
+        <v>51585</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1389"/>
+  <dimension ref="A1:R1398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -77743,7 +77743,7 @@
         <v>15</v>
       </c>
       <c r="O1383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1383" t="n">
         <v>0</v>
@@ -77959,7 +77959,7 @@
         <v>16</v>
       </c>
       <c r="O1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1387" t="n">
         <v>0</v>
@@ -77967,7 +77967,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78019,7 +78021,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78071,7 +78075,477 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>414.5499877929688</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>428</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>404.0499877929688</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="n">
+        <v>64823</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>423.8500061035156</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>428</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>419.9500122070312</v>
+      </c>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="n">
+        <v>25010</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>421.5499877929688</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>429.8999938964844</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>394.9500122070312</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="n">
+        <v>42253</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>422.3500061035156</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>408.5499877929688</v>
+      </c>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>50989</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>416</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>416</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>381.2999877929688</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>391.5499877929688</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>54296</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>401.6000061035156</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>375.2999877929688</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>382.8999938964844</v>
+      </c>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="n">
+        <v>75717</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>364.2000122070312</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="n">
+        <v>58447</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>378.4500122070312</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>381.1499938964844</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>365.3500061035156</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>367.3999938964844</v>
+      </c>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="n">
+        <v>30745</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>356.0499877929688</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>361.1000061035156</v>
+      </c>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="n">
+        <v>29921</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ZODIAC.NS.xlsx
+++ b/stock_historical_data/1d/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1398"/>
+  <dimension ref="A1:R1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78129,7 +78129,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78181,7 +78183,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78233,7 +78237,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78285,7 +78291,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78337,7 +78345,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78389,7 +78399,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78441,7 +78453,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78493,7 +78507,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78545,7 +78561,529 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>368.3500061035156</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>373.2000122070312</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>362</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>367.2000122070312</v>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="n">
+        <v>30943</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>367.2000122070312</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="n">
+        <v>32259</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="n">
+        <v>49560</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>336</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>339.25</v>
+      </c>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="n">
+        <v>27939</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>318.7999877929688</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="n">
+        <v>38877</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>388.8999938964844</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>339</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="n">
+        <v>343396</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>369.4500122070312</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="n">
+        <v>105713</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>389.0499877929688</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>380.5499877929688</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>416.8999938964844</v>
+      </c>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="n">
+        <v>190929</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>423.1499938964844</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>434.75</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>421.0499877929688</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>424.1499938964844</v>
+      </c>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="n">
+        <v>74806</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>430.5</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>480</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="n">
+        <v>444506</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
